--- a/Application/Output/Analyse Resultats/data_literature.xlsx
+++ b/Application/Output/Analyse Resultats/data_literature.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Gitkraken\EpauleFDK\Application\Validation\EpauleFDK\Output\Resultats FDK\Anybody_Package\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Gitkraken\EpauleFDK\Application\Output\Analyse Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B0E3D-15EC-42B9-A305-2A7BB0A9996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0ACD5-BF6B-4C26-9AEF-8AA1724083E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E3FA9BE2-8105-4758-A4A7-13B0A4E277C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="4" r:id="rId1"/>
     <sheet name="Muscle.Template" sheetId="6" r:id="rId2"/>
-    <sheet name="ForceContact" sheetId="7" r:id="rId3"/>
-    <sheet name="ForceContact Scapula" sheetId="8" r:id="rId4"/>
+    <sheet name="ContactForce humerus" sheetId="7" r:id="rId3"/>
+    <sheet name="ContactForce glenoid" sheetId="8" r:id="rId4"/>
     <sheet name="Translation" sheetId="5" r:id="rId5"/>
     <sheet name="Muscle.Activity" sheetId="1" r:id="rId6"/>
   </sheets>
@@ -237,9 +237,6 @@
     </r>
   </si>
   <si>
-    <t>ForceContact</t>
-  </si>
-  <si>
     <t>Bergmann 2007</t>
   </si>
   <si>
@@ -288,10 +285,13 @@
     <t>Contact Force on the humerus [N]</t>
   </si>
   <si>
-    <t>ForceContact Scapula</t>
+    <t>Contact Force on the glenoid [N]</t>
   </si>
   <si>
-    <t>Contact Force on the glenoid [N]</t>
+    <t>ContactForce humerus</t>
+  </si>
+  <si>
+    <t>ContactForce glenoid</t>
   </si>
 </sst>
 </file>
@@ -3877,8 +3877,8 @@
   </sheetPr>
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,43 +3886,43 @@
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="87" customWidth="1"/>
+    <col min="16" max="16" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="87" customWidth="1"/>
+    <col min="18" max="18" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="87" customWidth="1"/>
+    <col min="20" max="20" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" style="87" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="87" customWidth="1"/>
+    <col min="24" max="24" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="87" customWidth="1"/>
+    <col min="26" max="26" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="87" customWidth="1"/>
+    <col min="28" max="28" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17" style="87" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17" style="87" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17" style="87" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21" style="87" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16.42578125" style="87" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16.42578125" style="87" bestFit="1" customWidth="1"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3948,11 +3948,11 @@
       <c r="I1" s="6"/>
       <c r="J1" s="3"/>
       <c r="K1" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="83"/>
       <c r="M1" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N1" s="86"/>
       <c r="O1" s="84"/>
@@ -3962,7 +3962,7 @@
       <c r="S1" s="85"/>
       <c r="T1" s="85"/>
       <c r="U1" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V1" s="84"/>
       <c r="W1" s="84"/>
@@ -3972,15 +3972,15 @@
       <c r="AA1" s="84"/>
       <c r="AB1" s="84"/>
       <c r="AC1" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="83"/>
       <c r="AE1" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="83"/>
       <c r="AG1" s="97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="86"/>
       <c r="AI1" s="6"/>
@@ -4001,115 +4001,115 @@
         <v>2</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="S2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="U2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="W2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="X2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AB2" s="32" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AD2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AF2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AG2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AH2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AJ2" s="58" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AL2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AM2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="AN2" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
@@ -4123,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -4393,7 +4393,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C5" s="18">
         <v>30</v>
@@ -4520,7 +4520,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="18">
         <v>45</v>
@@ -5136,7 +5136,7 @@
   <dimension ref="A1:AT51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5196,15 +5196,15 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="100"/>
       <c r="E1" s="99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="100"/>
       <c r="G1" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="100"/>
       <c r="K1" s="85"/>
@@ -5247,19 +5247,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -5305,7 +5305,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -5427,7 +5427,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="103">
         <v>20.9948979591836</v>
@@ -5485,7 +5485,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="103">
         <v>22.678571428571399</v>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6298,7 +6298,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -6487,7 +6487,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="18">
         <v>0.40868454661558101</v>
@@ -8388,7 +8388,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>2</v>
@@ -8682,7 +8682,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="38">
         <v>5.8</v>
